--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -16,19 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>continuar con problemas de git</t>
+  </si>
+  <si>
+    <t>seguir con serenity</t>
+  </si>
+  <si>
+    <t>https://www.adictosaltrabajo.com/2017/12/20/primeros-pasos-con-serenity-y-cucumber/</t>
+  </si>
+  <si>
+    <t>http://adrianmoya.com/2013/04/bdd-de-historias-un-ejemplo-concreto-en-java/#sthash.Xz1LaZpl.dpbs</t>
+  </si>
+  <si>
+    <t>https://github.com/adrianmoya/bddsample-java</t>
+  </si>
+  <si>
+    <t>http://thucydides.info/docs/articles/an-introduction-to-serenity-bdd-with-cucumber.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +74,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,20 +383,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3"/>
+  <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2" location="sthash.Xz1LaZpl.dpbs" display="http://adrianmoya.com/2013/04/bdd-de-historias-un-ejemplo-concreto-en-java/ - sthash.Xz1LaZpl.dpbs"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
